--- a/modelo_excel.xlsx
+++ b/modelo_excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://udeaeduco-my.sharepoint.com/personal/juan_espana_udea_edu_co/Documents/001_Docencia/Trabajos-grado/2024-08-09-Ivan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDRIVE_JCE\Mi unidad\cod\RL_DS_dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56865" documentId="8_{7982362E-F495-4AC2-B139-628754A011A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60DDD46D-1AB5-456F-96F9-2575FB59273C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC627E-2B33-4CDF-B1E7-8785713E8DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -126,7 +126,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -207,7 +207,7 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -228,9 +228,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -242,6 +239,9 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -258,10 +258,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -583,8 +579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8B34C3-B0EF-452A-B745-B234E9E67503}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,7 +616,7 @@
       <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="17">
+      <c r="M1" s="16">
         <f>0.001</f>
         <v>1E-3</v>
       </c>
@@ -632,7 +628,7 @@
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -667,11 +663,11 @@
       </c>
       <c r="O2" s="6">
         <f>SUM(N6:N40)</f>
-        <v>711.29294902839763</v>
+        <v>3134.7587809648594</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -680,7 +676,7 @@
       <c r="C3" s="2">
         <v>100</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="19">
         <v>100</v>
       </c>
       <c r="E3" s="2"/>
@@ -692,26 +688,26 @@
       <c r="K3" s="2"/>
       <c r="L3" s="8">
         <f>SUM(L6:L40)</f>
-        <v>633.23586849349635</v>
+        <v>787.5</v>
       </c>
       <c r="M3" s="7">
         <f>SUM(M6:M40)</f>
-        <v>78.057080534901417</v>
+        <v>2347.2587809648594</v>
       </c>
       <c r="N3" s="8">
         <f>SUM(N6:N40)</f>
-        <v>711.29294902839763</v>
+        <v>3134.7587809648594</v>
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="2">
         <v>-1</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="19">
         <v>100</v>
       </c>
       <c r="E4" s="2"/>
@@ -726,14 +722,14 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>100</v>
       </c>
       <c r="E5" s="2">
@@ -776,7 +772,7 @@
         <v>100</v>
       </c>
       <c r="D6" s="13">
-        <v>267.83468544302343</v>
+        <v>150</v>
       </c>
       <c r="E6" s="15">
         <f>E5+D3-H6</f>
@@ -808,7 +804,7 @@
       </c>
       <c r="L6" s="3">
         <f>(D6^2)*$M$1</f>
-        <v>71.735418726363307</v>
+        <v>22.5</v>
       </c>
       <c r="M6" s="13">
         <f>$K$1*(J6-K6)^2</f>
@@ -816,11 +812,11 @@
       </c>
       <c r="N6" s="3">
         <f>L6+M6</f>
-        <v>71.735418726363307</v>
+        <v>22.5</v>
       </c>
       <c r="O6">
         <f>N6</f>
-        <v>71.735418726363307</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -831,7 +827,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="13">
-        <v>202.41029372009942</v>
+        <v>150</v>
       </c>
       <c r="E7" s="15">
         <f t="shared" ref="E7:E40" si="0">E6+D4-H7</f>
@@ -863,7 +859,7 @@
       </c>
       <c r="L7" s="3">
         <f t="shared" ref="L7:L40" si="7">(D7^2)*$M$1</f>
-        <v>40.969927003856917</v>
+        <v>22.5</v>
       </c>
       <c r="M7" s="13">
         <f>$K$1*(J7-K7)^2</f>
@@ -871,11 +867,11 @@
       </c>
       <c r="N7" s="3">
         <f t="shared" ref="N7:N40" si="8">L7+M7</f>
-        <v>40.969927003856917</v>
+        <v>22.5</v>
       </c>
       <c r="O7">
         <f>N7+O6</f>
-        <v>112.70534573022022</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -886,7 +882,7 @@
         <v>120</v>
       </c>
       <c r="D8" s="13">
-        <v>151.07630057648538</v>
+        <v>150</v>
       </c>
       <c r="E8" s="15">
         <f>E7+D5-H8</f>
@@ -918,19 +914,19 @@
       </c>
       <c r="L8" s="3">
         <f t="shared" si="7"/>
-        <v>22.824048595876558</v>
-      </c>
-      <c r="M8" s="18">
+        <v>22.5</v>
+      </c>
+      <c r="M8" s="17">
         <f>$K$1*(J8-K8)^2</f>
         <v>0.8</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="8"/>
-        <v>23.624048595876559</v>
+        <v>23.3</v>
       </c>
       <c r="O8">
-        <f t="shared" ref="O8:O51" si="9">N8+O7</f>
-        <v>136.32939432609678</v>
+        <f t="shared" ref="O8:O40" si="9">N8+O7</f>
+        <v>68.3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -941,11 +937,11 @@
         <v>120</v>
       </c>
       <c r="D9" s="13">
-        <v>191.36424338527092</v>
+        <v>150</v>
       </c>
       <c r="E9" s="15">
         <f>E8+D6-H9</f>
-        <v>1167.8346854430233</v>
+        <v>1050</v>
       </c>
       <c r="F9" s="13">
         <f>F8+G9</f>
@@ -973,7 +969,7 @@
       </c>
       <c r="L9" s="3">
         <f t="shared" si="7"/>
-        <v>36.620273646417203</v>
+        <v>22.5</v>
       </c>
       <c r="M9" s="13">
         <f t="shared" ref="M9:M40" si="10">$K$1*(J9-K9)^2</f>
@@ -981,11 +977,11 @@
       </c>
       <c r="N9" s="3">
         <f t="shared" si="8"/>
-        <v>39.820273646417206</v>
+        <v>25.7</v>
       </c>
       <c r="O9">
         <f t="shared" si="9"/>
-        <v>176.14966797251398</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -996,11 +992,11 @@
         <v>120</v>
       </c>
       <c r="D10" s="13">
-        <v>180.43474688614631</v>
+        <v>150</v>
       </c>
       <c r="E10" s="15">
         <f t="shared" si="0"/>
-        <v>1270.2449791631227</v>
+        <v>1100</v>
       </c>
       <c r="F10" s="13">
         <f>F9+G10</f>
@@ -1016,7 +1012,7 @@
       </c>
       <c r="I10" s="3">
         <f>E9/$I$1</f>
-        <v>116.78346854430234</v>
+        <v>105</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="5"/>
@@ -1028,7 +1024,7 @@
       </c>
       <c r="L10" s="3">
         <f t="shared" si="7"/>
-        <v>32.556697883867692</v>
+        <v>22.5</v>
       </c>
       <c r="M10" s="13">
         <f t="shared" si="10"/>
@@ -1036,11 +1032,11 @@
       </c>
       <c r="N10" s="3">
         <f t="shared" si="8"/>
-        <v>39.756697883867695</v>
+        <v>29.7</v>
       </c>
       <c r="O10">
         <f t="shared" si="9"/>
-        <v>215.90636585638168</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -1051,27 +1047,27 @@
         <v>120</v>
       </c>
       <c r="D11" s="13">
-        <v>110.92213270161656</v>
+        <v>150</v>
       </c>
       <c r="E11" s="15">
         <f>E10+D8-H11</f>
-        <v>1315.7267902248407</v>
+        <v>1148.3333333333333</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="1"/>
-        <v>105.59448951476745</v>
+        <v>101.66666666666667</v>
       </c>
       <c r="G11" s="9">
         <f>(I10-F10)/$G$1</f>
-        <v>5.5944895147674458</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="3"/>
-        <v>105.59448951476745</v>
+        <v>101.66666666666667</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="4"/>
-        <v>127.02449791631227</v>
+        <v>110</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="5"/>
@@ -1079,23 +1075,23 @@
       </c>
       <c r="K11" s="3">
         <f t="shared" si="6"/>
-        <v>605.59448951476747</v>
+        <v>601.66666666666663</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="7"/>
-        <v>12.303719523075035</v>
+        <v>22.5</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="10"/>
-        <v>11.072359981136096</v>
+        <v>12.272222222222235</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="8"/>
-        <v>23.37607950421113</v>
+        <v>34.772222222222233</v>
       </c>
       <c r="O11">
         <f t="shared" si="9"/>
-        <v>239.28244536059282</v>
+        <v>158.47222222222223</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -1106,27 +1102,27 @@
         <v>120</v>
       </c>
       <c r="D12" s="13">
-        <v>121.03113548033357</v>
+        <v>150</v>
       </c>
       <c r="E12" s="15">
         <f>E11+D9-H12</f>
-        <v>1394.3532079614959</v>
+        <v>1193.8888888888889</v>
       </c>
       <c r="F12" s="10">
         <f>F11+G12</f>
-        <v>112.73782564861573</v>
+        <v>104.44444444444444</v>
       </c>
       <c r="G12" s="11">
         <f>(I11-F11)/$G$1</f>
-        <v>7.1433361338482753</v>
+        <v>2.7777777777777763</v>
       </c>
       <c r="H12" s="10">
         <f>MIN(I12,F12)</f>
-        <v>112.73782564861573</v>
+        <v>104.44444444444444</v>
       </c>
       <c r="I12" s="3">
         <f>E11/$I$1</f>
-        <v>131.57267902248407</v>
+        <v>114.83333333333333</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="5"/>
@@ -1134,23 +1130,23 @@
       </c>
       <c r="K12" s="10">
         <f>K11+H12</f>
-        <v>718.33231516338321</v>
+        <v>706.11111111111109</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="7"/>
-        <v>14.648535755658861</v>
+        <v>22.5</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="10"/>
-        <v>13.339221493145935</v>
+        <v>17.630246913580258</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="8"/>
-        <v>27.987757248804797</v>
+        <v>40.130246913580258</v>
       </c>
       <c r="O12">
         <f t="shared" si="9"/>
-        <v>267.27020260939764</v>
+        <v>198.60246913580249</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -1161,27 +1157,27 @@
         <v>120</v>
       </c>
       <c r="D13" s="13">
-        <v>96.534459030385918</v>
+        <v>150</v>
       </c>
       <c r="E13" s="15">
         <f t="shared" si="0"/>
-        <v>1455.7718447410703</v>
+        <v>1235.9814814814815</v>
       </c>
       <c r="F13" s="13">
         <f t="shared" si="1"/>
-        <v>119.01611010657184</v>
+        <v>107.9074074074074</v>
       </c>
       <c r="G13" s="13">
         <f t="shared" si="2"/>
-        <v>6.2782844579561141</v>
+        <v>3.4629629629629619</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>119.01611010657184</v>
+        <v>107.9074074074074</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="4"/>
-        <v>139.4353207961496</v>
+        <v>119.38888888888889</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="5"/>
@@ -1189,23 +1185,23 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="6"/>
-        <v>837.3484252699551</v>
+        <v>814.01851851851848</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="7"/>
-        <v>9.3189017802892575</v>
+        <v>22.5</v>
       </c>
       <c r="M13" s="13">
         <f t="shared" si="10"/>
-        <v>13.662565610712393</v>
+        <v>22.464148834019223</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="8"/>
-        <v>22.981467391001651</v>
+        <v>44.964148834019227</v>
       </c>
       <c r="O13">
         <f t="shared" si="9"/>
-        <v>290.25167000039932</v>
+        <v>243.56661796982172</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1216,27 +1212,27 @@
         <v>120</v>
       </c>
       <c r="D14" s="13">
-        <v>100.46444756546278</v>
+        <v>150</v>
       </c>
       <c r="E14" s="15">
         <f t="shared" si="0"/>
-        <v>1440.8714637729224</v>
+        <v>1274.2469135802469</v>
       </c>
       <c r="F14" s="13">
         <f t="shared" si="1"/>
-        <v>125.82251366976443</v>
+        <v>111.73456790123457</v>
       </c>
       <c r="G14" s="13">
         <f t="shared" si="2"/>
-        <v>6.8064035631925845</v>
+        <v>3.8271604938271602</v>
       </c>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>125.82251366976443</v>
+        <v>111.73456790123457</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="4"/>
-        <v>145.57718447410701</v>
+        <v>123.59814814814816</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="5"/>
@@ -1244,23 +1240,23 @@
       </c>
       <c r="K14" s="3">
         <f t="shared" si="6"/>
-        <v>963.17093893971958</v>
+        <v>925.753086419753</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="7"/>
-        <v>10.09310522463362</v>
+        <v>22.5</v>
       </c>
       <c r="M14" s="13">
         <f t="shared" si="10"/>
-        <v>11.805409246808594</v>
+        <v>26.104714525224853</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="8"/>
-        <v>21.898514471442212</v>
+        <v>48.60471452522485</v>
       </c>
       <c r="O14">
         <f t="shared" si="9"/>
-        <v>312.1501844718415</v>
+        <v>292.17133249504656</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1271,27 +1267,27 @@
         <v>120</v>
       </c>
       <c r="D15" s="13">
-        <v>93.901910047180849</v>
+        <v>150</v>
       </c>
       <c r="E15" s="15">
         <f t="shared" si="0"/>
-        <v>1429.4951953153775</v>
+        <v>1308.5578189300411</v>
       </c>
       <c r="F15" s="13">
         <f t="shared" si="1"/>
-        <v>132.40740393787863</v>
+        <v>115.68909465020576</v>
       </c>
       <c r="G15" s="13">
         <f t="shared" si="2"/>
-        <v>6.5848902681141936</v>
+        <v>3.9545267489711953</v>
       </c>
       <c r="H15" s="3">
         <f t="shared" si="3"/>
-        <v>132.40740393787863</v>
+        <v>115.68909465020576</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="4"/>
-        <v>144.08714637729224</v>
+        <v>127.42469135802469</v>
       </c>
       <c r="J15" s="3">
         <f t="shared" si="5"/>
@@ -1299,23 +1295,23 @@
       </c>
       <c r="K15" s="3">
         <f t="shared" si="6"/>
-        <v>1095.5783428775983</v>
+        <v>1041.4421810699587</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="7"/>
-        <v>8.8175687105088443</v>
+        <v>22.5</v>
       </c>
       <c r="M15" s="13">
         <f t="shared" si="10"/>
-        <v>8.3002998127925824</v>
+        <v>28.111912858896929</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="8"/>
-        <v>17.117868523301425</v>
+        <v>50.611912858896929</v>
       </c>
       <c r="O15">
         <f t="shared" si="9"/>
-        <v>329.26805299514291</v>
+        <v>342.78324535394347</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1326,27 +1322,27 @@
         <v>120</v>
       </c>
       <c r="D16" s="13">
-        <v>117.2670497886178</v>
+        <v>150</v>
       </c>
       <c r="E16" s="15">
         <f t="shared" si="0"/>
-        <v>1389.7290029280803</v>
+        <v>1338.9568587105623</v>
       </c>
       <c r="F16" s="13">
         <f t="shared" si="1"/>
-        <v>136.30065141768316</v>
+        <v>119.60096021947874</v>
       </c>
       <c r="G16" s="13">
         <f t="shared" si="2"/>
-        <v>3.8932474798045384</v>
+        <v>3.911865569272976</v>
       </c>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>136.30065141768316</v>
+        <v>119.60096021947874</v>
       </c>
       <c r="I16" s="3">
         <f t="shared" si="4"/>
-        <v>142.94951953153776</v>
+        <v>130.85578189300412</v>
       </c>
       <c r="J16" s="3">
         <f t="shared" si="5"/>
@@ -1354,23 +1350,23 @@
       </c>
       <c r="K16" s="3">
         <f t="shared" si="6"/>
-        <v>1231.8789942952815</v>
+        <v>1161.0431412894375</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="7"/>
-        <v>13.751560966126167</v>
+        <v>22.5</v>
       </c>
       <c r="M16" s="13">
         <f t="shared" si="10"/>
-        <v>4.6312623800671062</v>
+        <v>28.301468468569475</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="8"/>
-        <v>18.382823346193273</v>
+        <v>50.801468468569475</v>
       </c>
       <c r="O16">
         <f t="shared" si="9"/>
-        <v>347.65087634133619</v>
+        <v>393.58471382251292</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
@@ -1381,27 +1377,27 @@
         <v>120</v>
       </c>
       <c r="D17" s="13">
-        <v>64.763702493114167</v>
+        <v>150</v>
       </c>
       <c r="E17" s="15">
         <f t="shared" si="0"/>
-        <v>1351.676509704575</v>
+        <v>1365.604291266575</v>
       </c>
       <c r="F17" s="13">
         <f t="shared" si="1"/>
-        <v>138.51694078896801</v>
+        <v>123.3525674439872</v>
       </c>
       <c r="G17" s="13">
         <f t="shared" si="2"/>
-        <v>2.2162893712848679</v>
+        <v>3.7516072245084615</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>138.51694078896801</v>
+        <v>123.3525674439872</v>
       </c>
       <c r="I17" s="3">
         <f t="shared" si="4"/>
-        <v>138.97290029280802</v>
+        <v>133.89568587105623</v>
       </c>
       <c r="J17" s="3">
         <f t="shared" si="5"/>
@@ -1409,23 +1405,23 @@
       </c>
       <c r="K17" s="3">
         <f t="shared" si="6"/>
-        <v>1370.3959350842495</v>
+        <v>1284.3957087334247</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="7"/>
-        <v>4.1943371606166018</v>
+        <v>22.5</v>
       </c>
       <c r="M17" s="13">
         <f t="shared" si="10"/>
-        <v>1.7528013190719443</v>
+        <v>26.728704318494344</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="8"/>
-        <v>5.9471384796885456</v>
+        <v>49.228704318494344</v>
       </c>
       <c r="O17">
         <f t="shared" si="9"/>
-        <v>353.59801482102472</v>
+        <v>442.81341814100728</v>
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
@@ -1436,27 +1432,27 @@
         <v>120</v>
       </c>
       <c r="D18" s="13">
-        <v>18.983957328657308</v>
+        <v>150</v>
       </c>
       <c r="E18" s="15">
         <f t="shared" si="0"/>
-        <v>1310.4107687812982</v>
+        <v>1388.7373510135649</v>
       </c>
       <c r="F18" s="13">
         <f t="shared" si="1"/>
-        <v>138.66892729024801</v>
+        <v>126.86694025301021</v>
       </c>
       <c r="G18" s="13">
         <f t="shared" si="2"/>
-        <v>0.15198650128000205</v>
+        <v>3.5143728090230106</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>135.16765097045749</v>
+        <v>126.86694025301021</v>
       </c>
       <c r="I18" s="3">
         <f t="shared" si="4"/>
-        <v>135.16765097045749</v>
+        <v>136.56042912665751</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" si="5"/>
@@ -1464,23 +1460,23 @@
       </c>
       <c r="K18" s="3">
         <f t="shared" si="6"/>
-        <v>1505.563586054707</v>
+        <v>1411.2626489864349</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="7"/>
-        <v>0.3603906358562815</v>
+        <v>22.5</v>
       </c>
       <c r="M18" s="13">
         <f t="shared" si="10"/>
-        <v>0.41682009519970031</v>
+        <v>23.647623010894534</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="8"/>
-        <v>0.77721073105598182</v>
+        <v>46.147623010894534</v>
       </c>
       <c r="O18">
         <f t="shared" si="9"/>
-        <v>354.37522555208068</v>
+        <v>488.96104115190178</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
@@ -1491,27 +1487,27 @@
         <v>120</v>
       </c>
       <c r="D19" s="13">
-        <v>173.66018669713216</v>
+        <v>150</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="0"/>
-        <v>1296.6367416917863</v>
+        <v>1408.6392478026723</v>
       </c>
       <c r="F19" s="13">
         <f t="shared" si="1"/>
-        <v>137.50183518365117</v>
+        <v>130.09810321089265</v>
       </c>
       <c r="G19" s="13">
         <f t="shared" si="2"/>
-        <v>-1.16709210659684</v>
+        <v>3.2311629578824324</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v>131.04107687812981</v>
+        <v>130.09810321089265</v>
       </c>
       <c r="I19" s="3">
         <f t="shared" si="4"/>
-        <v>131.04107687812981</v>
+        <v>138.87373510135649</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="5"/>
@@ -1519,23 +1515,23 @@
       </c>
       <c r="K19" s="3">
         <f t="shared" si="6"/>
-        <v>1636.6046629328368</v>
+        <v>1541.3607521973277</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="7"/>
-        <v>30.1578604436828</v>
+        <v>22.5</v>
       </c>
       <c r="M19" s="13">
         <f t="shared" si="10"/>
-        <v>2.3056627599304186E-2</v>
+        <v>19.459402414154003</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="8"/>
-        <v>30.180917071282103</v>
+        <v>41.959402414153999</v>
       </c>
       <c r="O19">
         <f t="shared" si="9"/>
-        <v>384.5561426233628</v>
+        <v>530.92044356605584</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
@@ -1546,27 +1542,27 @@
         <v>120</v>
       </c>
       <c r="D20" s="13">
-        <v>66.831527865201664</v>
+        <v>150</v>
       </c>
       <c r="E20" s="15">
         <f t="shared" si="0"/>
-        <v>1231.7367700157217</v>
+        <v>1425.6159339616252</v>
       </c>
       <c r="F20" s="13">
         <f t="shared" si="1"/>
-        <v>135.34824908181071</v>
+        <v>133.02331384104727</v>
       </c>
       <c r="G20" s="13">
         <f t="shared" si="2"/>
-        <v>-2.153586101840451</v>
+        <v>2.9252106301546141</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>129.66367416917862</v>
+        <v>133.02331384104727</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="4"/>
-        <v>129.66367416917862</v>
+        <v>140.86392478026724</v>
       </c>
       <c r="J20" s="3">
         <f t="shared" si="5"/>
@@ -1574,23 +1570,23 @@
       </c>
       <c r="K20" s="3">
         <f t="shared" si="6"/>
-        <v>1766.2683371020155</v>
+        <v>1674.3840660383748</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="7"/>
-        <v>4.4664531167972266</v>
+        <v>22.5</v>
       </c>
       <c r="M20" s="13">
         <f t="shared" si="10"/>
-        <v>7.8584100049007996E-2</v>
+        <v>14.660176296242721</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="8"/>
-        <v>4.545037216846235</v>
+        <v>37.160176296242724</v>
       </c>
       <c r="O20">
         <f t="shared" si="9"/>
-        <v>389.10117984020906</v>
+        <v>568.08061986229859</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
@@ -1601,27 +1597,27 @@
         <v>120</v>
       </c>
       <c r="D21" s="13">
-        <v>159.12033800319961</v>
+        <v>150</v>
       </c>
       <c r="E21" s="15">
         <f t="shared" si="0"/>
-        <v>1127.5470503428069</v>
+        <v>1439.9790831408379</v>
       </c>
       <c r="F21" s="13">
         <f t="shared" si="1"/>
-        <v>133.45339077760002</v>
+        <v>135.63685082078726</v>
       </c>
       <c r="G21" s="13">
         <f t="shared" si="2"/>
-        <v>-1.8948583042106957</v>
+        <v>2.6135369797399903</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="3"/>
-        <v>123.17367700157217</v>
+        <v>135.63685082078726</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="4"/>
-        <v>123.17367700157217</v>
+        <v>142.56159339616252</v>
       </c>
       <c r="J21" s="3">
         <f t="shared" si="5"/>
@@ -1629,23 +1625,23 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" si="6"/>
-        <v>1889.4420141035876</v>
+        <v>1810.0209168591621</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="7"/>
-        <v>25.31928196625249</v>
+        <v>22.5</v>
       </c>
       <c r="M21" s="13">
         <f t="shared" si="10"/>
-        <v>0.17830326066469251</v>
+        <v>9.7941441544646146</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="8"/>
-        <v>25.497585226917181</v>
+        <v>32.294144154464618</v>
       </c>
       <c r="O21">
         <f t="shared" si="9"/>
-        <v>414.59876506712624</v>
+        <v>600.37476401676327</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
@@ -1656,27 +1652,27 @@
         <v>120</v>
       </c>
       <c r="D22" s="13">
-        <v>184.48639494237671</v>
+        <v>150</v>
       </c>
       <c r="E22" s="15">
         <f t="shared" si="0"/>
-        <v>1188.4525320056582</v>
+        <v>1452.0339847949256</v>
       </c>
       <c r="F22" s="13">
         <f t="shared" si="1"/>
-        <v>130.02681951892407</v>
+        <v>137.94509834591236</v>
       </c>
       <c r="G22" s="13">
         <f t="shared" si="2"/>
-        <v>-3.4265712586759491</v>
+        <v>2.3082475251250876</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="3"/>
-        <v>112.75470503428069</v>
+        <v>137.94509834591236</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="4"/>
-        <v>112.75470503428069</v>
+        <v>143.99790831408379</v>
       </c>
       <c r="J22" s="3">
         <f t="shared" si="5"/>
@@ -1684,23 +1680,23 @@
       </c>
       <c r="K22" s="3">
         <f t="shared" si="6"/>
-        <v>2002.1967191378683</v>
+        <v>1947.9660152050744</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="7"/>
-        <v>34.035229918834602</v>
+        <v>22.5</v>
       </c>
       <c r="M22" s="13">
         <f t="shared" si="10"/>
-        <v>9.6511499413535675E-3</v>
+        <v>5.415071147277092</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="8"/>
-        <v>34.044881068775958</v>
+        <v>27.915071147277093</v>
       </c>
       <c r="O22">
         <f t="shared" si="9"/>
-        <v>448.6436461359022</v>
+        <v>628.28983516404037</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
@@ -1711,27 +1707,27 @@
         <v>120</v>
       </c>
       <c r="D23" s="13">
-        <v>76.445518518146301</v>
+        <v>150</v>
       </c>
       <c r="E23" s="15">
         <f t="shared" si="0"/>
-        <v>1136.4388066702941</v>
+        <v>1462.0712831262895</v>
       </c>
       <c r="F23" s="13">
         <f t="shared" si="1"/>
-        <v>124.26944802404294</v>
+        <v>139.96270166863616</v>
       </c>
       <c r="G23" s="13">
         <f t="shared" si="2"/>
-        <v>-5.7573714948811272</v>
+        <v>2.0176033227238102</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="3"/>
-        <v>118.84525320056582</v>
+        <v>139.96270166863616</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="4"/>
-        <v>118.84525320056582</v>
+        <v>145.20339847949256</v>
       </c>
       <c r="J23" s="3">
         <f t="shared" si="5"/>
@@ -1739,23 +1735,23 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="6"/>
-        <v>2121.0419723384339</v>
+        <v>2087.9287168737105</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="7"/>
-        <v>5.8439173015082488</v>
+        <v>22.5</v>
       </c>
       <c r="M23" s="13">
         <f t="shared" si="10"/>
-        <v>2.1714127081227342E-3</v>
+        <v>2.0571344027332397</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="8"/>
-        <v>5.8460887142163713</v>
+        <v>24.55713440273324</v>
       </c>
       <c r="O23">
         <f t="shared" si="9"/>
-        <v>454.48973485011857</v>
+        <v>652.84696956677362</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
@@ -1766,27 +1762,27 @@
         <v>120</v>
       </c>
       <c r="D24" s="13">
-        <v>105.5280969597038</v>
+        <v>150</v>
       </c>
       <c r="E24" s="15">
         <f t="shared" si="0"/>
-        <v>1181.9152640064642</v>
+        <v>1470.3616825207012</v>
       </c>
       <c r="F24" s="13">
         <f t="shared" si="1"/>
-        <v>122.4613830828839</v>
+        <v>141.70960060558829</v>
       </c>
       <c r="G24" s="13">
         <f t="shared" si="2"/>
-        <v>-1.808064941159041</v>
+        <v>1.7468989369521353</v>
       </c>
       <c r="H24" s="3">
         <f t="shared" si="3"/>
-        <v>113.64388066702941</v>
+        <v>141.70960060558829</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="4"/>
-        <v>113.64388066702941</v>
+        <v>146.20712831262895</v>
       </c>
       <c r="J24" s="3">
         <f t="shared" si="5"/>
@@ -1794,23 +1790,23 @@
       </c>
       <c r="K24" s="3">
         <f t="shared" si="6"/>
-        <v>2234.6858530054633</v>
+        <v>2229.6383174792986</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="7"/>
-        <v>11.136179247936647</v>
+        <v>22.5</v>
       </c>
       <c r="M24" s="13">
         <f t="shared" si="10"/>
-        <v>5.6480316559087175E-2</v>
+        <v>0.21472892931961696</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="8"/>
-        <v>11.192659564495735</v>
+        <v>22.714728929319616</v>
       </c>
       <c r="O24">
         <f t="shared" si="9"/>
-        <v>465.68239441461429</v>
+        <v>675.56169849609319</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
@@ -1821,27 +1817,27 @@
         <v>120</v>
       </c>
       <c r="D25" s="13">
-        <v>141.22020387776374</v>
+        <v>150</v>
       </c>
       <c r="E25" s="15">
         <f t="shared" si="0"/>
-        <v>1248.2101325481947</v>
+        <v>1477.1529060127659</v>
       </c>
       <c r="F25" s="13">
         <f t="shared" si="1"/>
-        <v>119.52221561093241</v>
+        <v>143.20877650793517</v>
       </c>
       <c r="G25" s="13">
         <f t="shared" si="2"/>
-        <v>-2.9391674719514973</v>
+        <v>1.4991759023468869</v>
       </c>
       <c r="H25" s="3">
         <f t="shared" si="3"/>
-        <v>118.19152640064642</v>
+        <v>143.20877650793517</v>
       </c>
       <c r="I25" s="3">
         <f t="shared" si="4"/>
-        <v>118.19152640064642</v>
+        <v>147.03616825207013</v>
       </c>
       <c r="J25" s="3">
         <f t="shared" si="5"/>
@@ -1849,23 +1845,23 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="6"/>
-        <v>2352.8773794061099</v>
+        <v>2372.8470939872336</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="7"/>
-        <v>19.943145983277155</v>
+        <v>22.5</v>
       </c>
       <c r="M25" s="13">
         <f t="shared" si="10"/>
-        <v>0.10146344824901565</v>
+        <v>0.33009564783362849</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="8"/>
-        <v>20.044609431526172</v>
+        <v>22.830095647833627</v>
       </c>
       <c r="O25">
         <f t="shared" si="9"/>
-        <v>485.72700384614046</v>
+        <v>698.39179414392686</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
@@ -1876,27 +1872,27 @@
         <v>120</v>
       </c>
       <c r="D26" s="13">
-        <v>107.53565634573216</v>
+        <v>150</v>
       </c>
       <c r="E26" s="15">
         <f t="shared" si="0"/>
-        <v>1205.576998525504</v>
+        <v>1482.6683322567858</v>
       </c>
       <c r="F26" s="13">
         <f t="shared" si="1"/>
-        <v>119.07865254083708</v>
+        <v>144.48457375598016</v>
       </c>
       <c r="G26" s="13">
         <f t="shared" si="2"/>
-        <v>-0.44356307009532731</v>
+        <v>1.2757972480449855</v>
       </c>
       <c r="H26" s="3">
         <f t="shared" si="3"/>
-        <v>119.07865254083708</v>
+        <v>144.48457375598016</v>
       </c>
       <c r="I26" s="3">
         <f t="shared" si="4"/>
-        <v>124.82101325481946</v>
+        <v>147.71529060127659</v>
       </c>
       <c r="J26" s="3">
         <f t="shared" si="5"/>
@@ -1904,23 +1900,23 @@
       </c>
       <c r="K26" s="3">
         <f t="shared" si="6"/>
-        <v>2471.956031946947</v>
+        <v>2517.331667743214</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="7"/>
-        <v>11.563917385707406</v>
+        <v>22.5</v>
       </c>
       <c r="M26" s="13">
         <f t="shared" si="10"/>
-        <v>0.12941084407707615</v>
+        <v>2.7873068329794468</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="8"/>
-        <v>11.693328229784482</v>
+        <v>25.287306832979446</v>
       </c>
       <c r="O26">
         <f t="shared" si="9"/>
-        <v>497.42033207592493</v>
+        <v>723.67910097690628</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
@@ -1931,27 +1927,27 @@
         <v>120</v>
       </c>
       <c r="D27" s="13">
-        <v>159.13586568387436</v>
+        <v>150</v>
       </c>
       <c r="E27" s="15">
         <f t="shared" si="0"/>
-        <v>1190.5473956326573</v>
+        <v>1487.1068528857068</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="1"/>
-        <v>120.99277277883121</v>
+        <v>145.56147937107897</v>
       </c>
       <c r="G27" s="13">
         <f t="shared" si="2"/>
-        <v>1.9141202379941262</v>
+        <v>1.0769056150988092</v>
       </c>
       <c r="H27" s="3">
         <f t="shared" si="3"/>
-        <v>120.5576998525504</v>
+        <v>145.56147937107897</v>
       </c>
       <c r="I27" s="3">
         <f t="shared" si="4"/>
-        <v>120.5576998525504</v>
+        <v>148.26683322567857</v>
       </c>
       <c r="J27" s="3">
         <f t="shared" si="5"/>
@@ -1959,23 +1955,23 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="6"/>
-        <v>2592.5137317994972</v>
+        <v>2662.8931471142928</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="7"/>
-        <v>25.3242237469561</v>
+        <v>22.5</v>
       </c>
       <c r="M27" s="13">
         <f t="shared" si="10"/>
-        <v>0.11208842313971777</v>
+        <v>7.911095907880151</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="8"/>
-        <v>25.436312170095817</v>
+        <v>30.411095907880153</v>
       </c>
       <c r="O27">
         <f t="shared" si="9"/>
-        <v>522.85664424602078</v>
+        <v>754.09019688478645</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
@@ -1986,27 +1982,27 @@
         <v>120</v>
       </c>
       <c r="D28" s="13">
-        <v>142.89264639627456</v>
+        <v>150</v>
       </c>
       <c r="E28" s="15">
         <f t="shared" si="0"/>
-        <v>1212.7128599471553</v>
+        <v>1490.6435888964279</v>
       </c>
       <c r="F28" s="13">
         <f t="shared" si="1"/>
-        <v>120.84774847007094</v>
+        <v>146.46326398927883</v>
       </c>
       <c r="G28" s="13">
         <f t="shared" si="2"/>
-        <v>-0.14502430876027006</v>
+        <v>0.90178461819986444</v>
       </c>
       <c r="H28" s="3">
         <f t="shared" si="3"/>
-        <v>119.05473956326573</v>
+        <v>146.46326398927883</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="4"/>
-        <v>119.05473956326573</v>
+        <v>148.71068528857069</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" si="5"/>
@@ -2014,23 +2010,23 @@
       </c>
       <c r="K28" s="3">
         <f t="shared" si="6"/>
-        <v>2711.5684713627629</v>
+        <v>2809.3564111035716</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="7"/>
-        <v>20.418308394130758</v>
+        <v>22.5</v>
       </c>
       <c r="M28" s="13">
         <f t="shared" si="10"/>
-        <v>0.14218135032109791</v>
+        <v>15.969136410621005</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="8"/>
-        <v>20.560489744451857</v>
+        <v>38.469136410621005</v>
       </c>
       <c r="O28">
         <f t="shared" si="9"/>
-        <v>543.41713399047262</v>
+        <v>792.55933329540744</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
@@ -2041,27 +2037,27 @@
         <v>120</v>
       </c>
       <c r="D29" s="13">
-        <v>90.15012005985389</v>
+        <v>150</v>
       </c>
       <c r="E29" s="15">
         <f t="shared" si="0"/>
-        <v>1199.9984374584183</v>
+        <v>1493.4311844740519</v>
       </c>
       <c r="F29" s="13">
         <f t="shared" si="1"/>
-        <v>120.25007883446921</v>
+        <v>147.21240442237612</v>
       </c>
       <c r="G29" s="13">
         <f t="shared" si="2"/>
-        <v>-0.59766963560173758</v>
+        <v>0.74914043309728606</v>
       </c>
       <c r="H29" s="3">
         <f t="shared" si="3"/>
-        <v>120.25007883446921</v>
+        <v>147.21240442237612</v>
       </c>
       <c r="I29" s="3">
         <f t="shared" si="4"/>
-        <v>121.27128599471553</v>
+        <v>149.06435888964279</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" si="5"/>
@@ -2069,23 +2065,23 @@
       </c>
       <c r="K29" s="3">
         <f t="shared" si="6"/>
-        <v>2831.8185501972321</v>
+        <v>2956.5688155259477</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="7"/>
-        <v>8.127044146806071</v>
+        <v>22.5</v>
       </c>
       <c r="M29" s="13">
         <f t="shared" si="10"/>
-        <v>0.13387224175042278</v>
+        <v>27.176577506244847</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="8"/>
-        <v>8.2609163885564936</v>
+        <v>49.676577506244847</v>
       </c>
       <c r="O29">
         <f t="shared" si="9"/>
-        <v>551.67805037902906</v>
+        <v>842.23591080165227</v>
       </c>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
@@ -2096,27 +2092,27 @@
         <v>120</v>
       </c>
       <c r="D30" s="13">
-        <v>93.504296488724009</v>
+        <v>150</v>
       </c>
       <c r="E30" s="15">
         <f t="shared" si="0"/>
-        <v>1239.1344593964507</v>
+        <v>1495.6014618959202</v>
       </c>
       <c r="F30" s="13">
         <f t="shared" si="1"/>
-        <v>120.59048122121798</v>
+        <v>147.82972257813168</v>
       </c>
       <c r="G30" s="13">
         <f t="shared" si="2"/>
-        <v>0.34040238674877327</v>
+        <v>0.61731815575555515</v>
       </c>
       <c r="H30" s="3">
         <f t="shared" si="3"/>
-        <v>119.99984374584183</v>
+        <v>147.82972257813168</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" si="4"/>
-        <v>119.99984374584183</v>
+        <v>149.34311844740517</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" si="5"/>
@@ -2124,23 +2120,23 @@
       </c>
       <c r="K30" s="3">
         <f t="shared" si="6"/>
-        <v>2951.8183939430737</v>
+        <v>3104.3985381040793</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="7"/>
-        <v>8.7430534618512041</v>
+        <v>22.5</v>
       </c>
       <c r="M30" s="13">
         <f t="shared" si="10"/>
-        <v>0.13387735534146575</v>
+        <v>41.701875613190488</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="8"/>
-        <v>8.8769308171926706</v>
+        <v>64.201875613190481</v>
       </c>
       <c r="O30">
         <f t="shared" si="9"/>
-        <v>560.55498119622177</v>
+        <v>906.43778641484278</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
@@ -2151,27 +2147,27 @@
         <v>120</v>
       </c>
       <c r="D31" s="13">
-        <v>142.92193014572516</v>
+        <v>150</v>
       </c>
       <c r="E31" s="15">
         <f t="shared" si="0"/>
-        <v>1261.6335037299659</v>
+        <v>1497.2672740280307</v>
       </c>
       <c r="F31" s="13">
         <f t="shared" si="1"/>
-        <v>120.39360206275927</v>
+        <v>148.33418786788951</v>
       </c>
       <c r="G31" s="13">
         <f t="shared" si="2"/>
-        <v>-0.19687915845871848</v>
+        <v>0.50446528975783167</v>
       </c>
       <c r="H31" s="3">
         <f t="shared" si="3"/>
-        <v>120.39360206275927</v>
+        <v>148.33418786788951</v>
       </c>
       <c r="I31" s="3">
         <f t="shared" si="4"/>
-        <v>123.91344593964507</v>
+        <v>149.56014618959202</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" si="5"/>
@@ -2179,23 +2175,23 @@
       </c>
       <c r="K31" s="3">
         <f t="shared" si="6"/>
-        <v>3072.211996005833</v>
+        <v>3252.7327259719686</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="7"/>
-        <v>20.426678116579541</v>
+        <v>22.5</v>
       </c>
       <c r="M31" s="13">
         <f t="shared" si="10"/>
-        <v>0.12130601242632094</v>
+        <v>59.673189243414427</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="8"/>
-        <v>20.547984129005862</v>
+        <v>82.173189243414427</v>
       </c>
       <c r="O31">
         <f t="shared" si="9"/>
-        <v>581.10296532522761</v>
+        <v>988.61097565825719</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
@@ -2206,27 +2202,27 @@
         <v>120</v>
       </c>
       <c r="D32" s="13">
-        <v>189.60397214452979</v>
+        <v>150</v>
       </c>
       <c r="E32" s="15">
         <f t="shared" si="0"/>
-        <v>1230.2167404347651</v>
+        <v>1498.5244333862404</v>
       </c>
       <c r="F32" s="13">
         <f t="shared" si="1"/>
-        <v>121.56688335505454</v>
+        <v>148.74284064179034</v>
       </c>
       <c r="G32" s="13">
         <f t="shared" si="2"/>
-        <v>1.1732812922952671</v>
+        <v>0.4086527739008356</v>
       </c>
       <c r="H32" s="3">
         <f t="shared" si="3"/>
-        <v>121.56688335505454</v>
+        <v>148.74284064179034</v>
       </c>
       <c r="I32" s="3">
         <f t="shared" si="4"/>
-        <v>126.16335037299659</v>
+        <v>149.72672740280308</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" si="5"/>
@@ -2234,23 +2230,23 @@
       </c>
       <c r="K32" s="3">
         <f t="shared" si="6"/>
-        <v>3193.7788793608875</v>
+        <v>3401.4755666137589</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="7"/>
-        <v>35.949666252983633</v>
+        <v>22.5</v>
       </c>
       <c r="M32" s="13">
         <f t="shared" si="10"/>
-        <v>7.7404684012784081E-2</v>
+        <v>81.184807884670434</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="8"/>
-        <v>36.027070936996417</v>
+        <v>103.68480788467043</v>
       </c>
       <c r="O32">
         <f t="shared" si="9"/>
-        <v>617.13003626222405</v>
+        <v>1092.2957835429277</v>
       </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
@@ -2261,27 +2257,27 @@
         <v>120</v>
       </c>
       <c r="D33" s="13">
-        <v>73.312541308627715</v>
+        <v>150</v>
       </c>
       <c r="E33" s="15">
         <f t="shared" si="0"/>
-        <v>1200.6993628800128</v>
+        <v>1499.4536304907792</v>
       </c>
       <c r="F33" s="13">
         <f t="shared" si="1"/>
-        <v>123.09903902770189</v>
+        <v>149.07080289546124</v>
       </c>
       <c r="G33" s="13">
         <f t="shared" si="2"/>
-        <v>1.5321556726473489</v>
+        <v>0.32796225367091364</v>
       </c>
       <c r="H33" s="3">
         <f t="shared" si="3"/>
-        <v>123.02167404347651</v>
+        <v>149.07080289546124</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" si="4"/>
-        <v>123.02167404347651</v>
+        <v>149.85244333862403</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" si="5"/>
@@ -2289,23 +2285,23 @@
       </c>
       <c r="K33" s="3">
         <f t="shared" si="6"/>
-        <v>3316.8005534043641</v>
+        <v>3550.5463695092203</v>
       </c>
       <c r="L33" s="3">
         <f t="shared" si="7"/>
-        <v>5.3747287131292456</v>
+        <v>22.5</v>
       </c>
       <c r="M33" s="13">
         <f t="shared" si="10"/>
-        <v>2.0472917036652185E-2</v>
+        <v>106.3032569877639</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" si="8"/>
-        <v>5.3952016301658974</v>
+        <v>128.80325698776392</v>
       </c>
       <c r="O33">
         <f t="shared" si="9"/>
-        <v>622.5252378923899</v>
+        <v>1221.0990405306916</v>
       </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
@@ -2316,27 +2312,27 @@
         <v>120</v>
       </c>
       <c r="D34" s="13">
-        <v>113.49125441773097</v>
+        <v>150</v>
       </c>
       <c r="E34" s="15">
         <f t="shared" si="0"/>
-        <v>1223.5513567377366</v>
+        <v>1500.1222807809304</v>
       </c>
       <c r="F34" s="13">
         <f t="shared" si="1"/>
-        <v>123.07325069962677</v>
+        <v>149.33134970984884</v>
       </c>
       <c r="G34" s="13">
         <f t="shared" si="2"/>
-        <v>-2.5788328075127726E-2</v>
+        <v>0.2605468143875953</v>
       </c>
       <c r="H34" s="3">
         <f t="shared" si="3"/>
-        <v>120.06993628800129</v>
+        <v>149.33134970984884</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" si="4"/>
-        <v>120.06993628800129</v>
+        <v>149.94536304907791</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" si="5"/>
@@ -2344,23 +2340,23 @@
       </c>
       <c r="K34" s="3">
         <f t="shared" si="6"/>
-        <v>3436.8704896923655</v>
+        <v>3699.8777192190691</v>
       </c>
       <c r="L34" s="3">
         <f t="shared" si="7"/>
-        <v>12.880264829310139</v>
+        <v>22.5</v>
       </c>
       <c r="M34" s="13">
         <f t="shared" si="10"/>
-        <v>1.9587669531181399E-2</v>
+        <v>135.07285789301068</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="8"/>
-        <v>12.899852498841321</v>
+        <v>157.57285789301068</v>
       </c>
       <c r="O34">
         <f t="shared" si="9"/>
-        <v>635.42509039123127</v>
+        <v>1378.6718984237023</v>
       </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
@@ -2371,27 +2367,27 @@
         <v>120</v>
       </c>
       <c r="D35" s="13">
-        <v>98.462795737794636</v>
+        <v>150</v>
       </c>
       <c r="E35" s="15">
         <f t="shared" si="0"/>
-        <v>1291.0831829865147</v>
+        <v>1500.5862599580053</v>
       </c>
       <c r="F35" s="13">
         <f t="shared" si="1"/>
-        <v>122.0721458957516</v>
+        <v>149.5360208229252</v>
       </c>
       <c r="G35" s="13">
         <f t="shared" si="2"/>
-        <v>-1.0011048038751607</v>
+        <v>0.20467111307635832</v>
       </c>
       <c r="H35" s="3">
         <f t="shared" si="3"/>
-        <v>122.0721458957516</v>
+        <v>149.5360208229252</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" si="4"/>
-        <v>122.35513567377366</v>
+        <v>150.01222807809305</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" si="5"/>
@@ -2399,23 +2395,23 @@
       </c>
       <c r="K35" s="3">
         <f t="shared" si="6"/>
-        <v>3558.9426355881169</v>
+        <v>3849.4137400419945</v>
       </c>
       <c r="L35" s="3">
         <f t="shared" si="7"/>
-        <v>9.6949221445026694</v>
+        <v>22.5</v>
       </c>
       <c r="M35" s="13">
         <f t="shared" si="10"/>
-        <v>2.2360389990337872E-3</v>
+        <v>167.52062585019036</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="8"/>
-        <v>9.6971581835017027</v>
+        <v>190.02062585019036</v>
       </c>
       <c r="O35">
         <f t="shared" si="9"/>
-        <v>645.12224857473302</v>
+        <v>1568.6925242738926</v>
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
@@ -2426,27 +2422,27 @@
         <v>120</v>
       </c>
       <c r="D36" s="13">
-        <v>112.5396623532215</v>
+        <v>150</v>
       </c>
       <c r="E36" s="15">
         <f t="shared" si="0"/>
-        <v>1242.2292484733834</v>
+        <v>1500.8915033833575</v>
       </c>
       <c r="F36" s="13">
         <f t="shared" si="1"/>
-        <v>122.16647582175895</v>
+        <v>149.69475657464781</v>
       </c>
       <c r="G36" s="13">
         <f t="shared" si="2"/>
-        <v>9.4329926007352086E-2</v>
+        <v>0.15873575172261667</v>
       </c>
       <c r="H36" s="3">
         <f t="shared" si="3"/>
-        <v>122.16647582175895</v>
+        <v>149.69475657464781</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" si="4"/>
-        <v>129.10831829865145</v>
+        <v>150.05862599580053</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" si="5"/>
@@ -2454,23 +2450,23 @@
       </c>
       <c r="K36" s="3">
         <f t="shared" si="6"/>
-        <v>3681.1091114098758</v>
+        <v>3999.1084966166422</v>
       </c>
       <c r="L36" s="3">
         <f t="shared" si="7"/>
-        <v>12.665175602577101</v>
+        <v>22.5</v>
       </c>
       <c r="M36" s="13">
         <f t="shared" si="10"/>
-        <v>2.4602562390334697E-3</v>
+        <v>203.66046522586714</v>
       </c>
       <c r="N36" s="3">
         <f t="shared" si="8"/>
-        <v>12.667635858816134</v>
+        <v>226.16046522586714</v>
       </c>
       <c r="O36">
         <f t="shared" si="9"/>
-        <v>657.7898844335491</v>
+        <v>1794.8529894997596</v>
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
@@ -2481,27 +2477,27 @@
         <v>120</v>
       </c>
       <c r="D37" s="13">
-        <v>124.75091208085347</v>
+        <v>150</v>
       </c>
       <c r="E37" s="15">
         <f t="shared" si="0"/>
-        <v>1231.497578043776</v>
+        <v>1501.0754570016588</v>
       </c>
       <c r="F37" s="13">
         <f t="shared" si="1"/>
-        <v>124.48042331405645</v>
+        <v>149.81604638169873</v>
       </c>
       <c r="G37" s="13">
         <f t="shared" si="2"/>
-        <v>2.3139474922975012</v>
+        <v>0.1212898070509046</v>
       </c>
       <c r="H37" s="3">
         <f t="shared" si="3"/>
-        <v>124.22292484733835</v>
+        <v>149.81604638169873</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" si="4"/>
-        <v>124.22292484733835</v>
+        <v>150.08915033833574</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" si="5"/>
@@ -2509,23 +2505,23 @@
       </c>
       <c r="K37" s="3">
         <f t="shared" si="6"/>
-        <v>3805.332036257214</v>
+        <v>4148.9245429983412</v>
       </c>
       <c r="L37" s="3">
         <f t="shared" si="7"/>
-        <v>15.562790065004833</v>
+        <v>22.5</v>
       </c>
       <c r="M37" s="13">
         <f t="shared" si="10"/>
-        <v>5.6861221296489059E-2</v>
+        <v>243.49667341320247</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="8"/>
-        <v>15.619651286301321</v>
+        <v>265.99667341320247</v>
       </c>
       <c r="O37">
         <f t="shared" si="9"/>
-        <v>673.4095357198504</v>
+        <v>2060.8496629129622</v>
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
@@ -2536,27 +2532,27 @@
         <v>120</v>
       </c>
       <c r="D38" s="13">
-        <v>153.670588767346</v>
+        <v>150</v>
       </c>
       <c r="E38" s="15">
         <f t="shared" si="0"/>
-        <v>1206.8106159771928</v>
+        <v>1501.1683759677478</v>
       </c>
       <c r="F38" s="13">
         <f t="shared" si="1"/>
-        <v>124.39459049181708</v>
+        <v>149.90708103391106</v>
       </c>
       <c r="G38" s="13">
         <f t="shared" si="2"/>
-        <v>-8.5832822239368056E-2</v>
+        <v>9.1034652212338571E-2</v>
       </c>
       <c r="H38" s="3">
         <f t="shared" si="3"/>
-        <v>123.1497578043776</v>
+        <v>149.90708103391106</v>
       </c>
       <c r="I38" s="3">
         <f t="shared" si="4"/>
-        <v>123.1497578043776</v>
+        <v>150.10754570016587</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" si="5"/>
@@ -2564,23 +2560,23 @@
       </c>
       <c r="K38" s="3">
         <f t="shared" si="6"/>
-        <v>3928.4817940615917</v>
+        <v>4298.831624032252</v>
       </c>
       <c r="L38" s="3">
         <f t="shared" si="7"/>
-        <v>23.614649852102769</v>
+        <v>22.5</v>
       </c>
       <c r="M38" s="13">
         <f t="shared" si="10"/>
-        <v>0.14388166100650443</v>
+        <v>287.02679873382704</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="8"/>
-        <v>23.758531513109272</v>
+        <v>309.52679873382704</v>
       </c>
       <c r="O38">
         <f t="shared" si="9"/>
-        <v>697.16806723295963</v>
+        <v>2370.3764616467893</v>
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
@@ -2591,27 +2587,27 @@
         <v>120</v>
       </c>
       <c r="D39" s="13">
-        <v>78.474508125152553</v>
+        <v>150</v>
       </c>
       <c r="E39" s="15">
         <f t="shared" si="0"/>
-        <v>1198.6692167326951</v>
+        <v>1501.1944733784185</v>
       </c>
       <c r="F39" s="13">
         <f t="shared" si="1"/>
-        <v>123.97964626267058</v>
+        <v>149.97390258932933</v>
       </c>
       <c r="G39" s="13">
         <f t="shared" si="2"/>
-        <v>-0.41494422914649459</v>
+        <v>6.6821555418272283E-2</v>
       </c>
       <c r="H39" s="3">
         <f t="shared" si="3"/>
-        <v>120.68106159771928</v>
+        <v>149.97390258932933</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" si="4"/>
-        <v>120.68106159771928</v>
+        <v>150.11683759677479</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" si="5"/>
@@ -2619,23 +2615,23 @@
       </c>
       <c r="K39" s="3">
         <f t="shared" si="6"/>
-        <v>4049.1628556593109</v>
+        <v>4448.8055266215815</v>
       </c>
       <c r="L39" s="3">
         <f t="shared" si="7"/>
-        <v>6.1582484254846346</v>
+        <v>22.5</v>
       </c>
       <c r="M39" s="13">
         <f t="shared" si="10"/>
-        <v>0.16791584766673287</v>
+        <v>334.24391719269721</v>
       </c>
       <c r="N39" s="3">
         <f t="shared" si="8"/>
-        <v>6.3261642731513676</v>
+        <v>356.74391719269721</v>
       </c>
       <c r="O39">
         <f t="shared" si="9"/>
-        <v>703.49423150611096</v>
+        <v>2727.1203788394864</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -2646,27 +2642,27 @@
         <v>120</v>
       </c>
       <c r="D40" s="13">
-        <v>87.382170749728729</v>
+        <v>150</v>
       </c>
       <c r="E40" s="15">
         <f t="shared" si="0"/>
-        <v>1203.553207140279</v>
+        <v>1501.1729257866073</v>
       </c>
       <c r="F40" s="13">
         <f t="shared" si="1"/>
-        <v>122.88011804102015</v>
+        <v>150.02154759181116</v>
       </c>
       <c r="G40" s="13">
         <f t="shared" si="2"/>
-        <v>-1.0995282216504354</v>
+        <v>4.7645002481819652E-2</v>
       </c>
       <c r="H40" s="3">
         <f>MIN(I40,F40)</f>
-        <v>119.8669216732695</v>
+        <v>150.02154759181116</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" si="4"/>
-        <v>119.8669216732695</v>
+        <v>150.11944733784185</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" si="5"/>
@@ -2674,23 +2670,23 @@
       </c>
       <c r="K40" s="3">
         <f t="shared" si="6"/>
-        <v>4169.0297773325801</v>
+        <v>4598.8270742133927</v>
       </c>
       <c r="L40" s="3">
         <f t="shared" si="7"/>
-        <v>7.6356437649347475</v>
-      </c>
-      <c r="M40" s="13">
+        <v>22.5</v>
+      </c>
+      <c r="M40" s="10">
         <f t="shared" si="10"/>
-        <v>0.16307375735195567</v>
+        <v>385.13840212537303</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" si="8"/>
-        <v>7.7987175222867036</v>
+        <v>407.63840212537303</v>
       </c>
       <c r="O40">
         <f t="shared" si="9"/>
-        <v>711.29294902839763</v>
+        <v>3134.7587809648594</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -2701,27 +2697,27 @@
         <v>120</v>
       </c>
       <c r="D41" s="13">
-        <v>147.67725038114094</v>
+        <v>150</v>
       </c>
       <c r="E41" s="15">
         <f t="shared" ref="E41:E51" si="11">E40+D38-H41</f>
-        <v>1236.8684751935973</v>
+        <v>1501.1187449461193</v>
       </c>
       <c r="F41" s="13">
         <f t="shared" ref="F41:F51" si="12">F40+G41</f>
-        <v>121.87571925176994</v>
+        <v>150.05418084048804</v>
       </c>
       <c r="G41" s="13">
         <f t="shared" ref="G41:G51" si="13">(I40-F40)/$G$1</f>
-        <v>-1.0043987892502173</v>
+        <v>3.2633248676897132E-2</v>
       </c>
       <c r="H41" s="3">
         <f t="shared" ref="H41:H51" si="14">MIN(I41,F41)</f>
-        <v>120.3553207140279</v>
+        <v>150.05418084048804</v>
       </c>
       <c r="I41" s="3">
         <f t="shared" ref="I41:I51" si="15">E40/$I$1</f>
-        <v>120.3553207140279</v>
+        <v>150.11729257866074</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" ref="J41:J51" si="16">J40+C41</f>
@@ -2729,23 +2725,23 @@
       </c>
       <c r="K41" s="3">
         <f t="shared" ref="K41:K51" si="17">K40+H41</f>
-        <v>4289.3850980466077</v>
+        <v>4748.8812550538805</v>
       </c>
       <c r="L41" s="3">
         <f t="shared" ref="L41:L51" si="18">(D41^2)*$M$1</f>
-        <v>21.808570280134191</v>
+        <v>22.5</v>
       </c>
       <c r="M41" s="13">
         <f t="shared" ref="M41:M51" si="19">$K$1*(J41-K41)^2</f>
-        <v>0.17616013068887967</v>
+        <v>439.69926268180433</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" ref="N41:N51" si="20">L41+M41</f>
-        <v>21.984730410823072</v>
+        <v>462.19926268180433</v>
       </c>
       <c r="O41">
         <f t="shared" ref="O41:O51" si="21">N41+O40</f>
-        <v>733.27767943922072</v>
+        <v>3596.9580436466636</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -2756,27 +2752,27 @@
         <v>120</v>
       </c>
       <c r="D42" s="13">
-        <v>106.57239098353308</v>
+        <v>150</v>
       </c>
       <c r="E42" s="15">
         <f t="shared" si="11"/>
-        <v>1193.9740635795606</v>
+        <v>1501.0435268595736</v>
       </c>
       <c r="F42" s="13">
         <f t="shared" si="12"/>
-        <v>121.36891973918925</v>
+        <v>150.07521808654562</v>
       </c>
       <c r="G42" s="13">
         <f t="shared" si="13"/>
-        <v>-0.50679951258067979</v>
+        <v>2.1037246057564591E-2</v>
       </c>
       <c r="H42" s="3">
         <f t="shared" si="14"/>
-        <v>121.36891973918925</v>
+        <v>150.07521808654562</v>
       </c>
       <c r="I42" s="3">
         <f t="shared" si="15"/>
-        <v>123.68684751935973</v>
+        <v>150.11187449461193</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" si="16"/>
@@ -2784,23 +2780,23 @@
       </c>
       <c r="K42" s="3">
         <f t="shared" si="17"/>
-        <v>4410.7540177857973</v>
+        <v>4898.9564731404262</v>
       </c>
       <c r="L42" s="3">
         <f t="shared" si="18"/>
-        <v>11.357674519947045</v>
+        <v>22.5</v>
       </c>
       <c r="M42" s="13">
         <f t="shared" si="19"/>
-        <v>0.23129779707448758</v>
+        <v>497.91512417746566</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="20"/>
-        <v>11.588972317021533</v>
+        <v>520.41512417746571</v>
       </c>
       <c r="O42">
         <f t="shared" si="21"/>
-        <v>744.86665175624228</v>
+        <v>4117.3731678241293</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -2811,27 +2807,27 @@
         <v>120</v>
       </c>
       <c r="D43" s="13">
-        <v>78.81177071291556</v>
+        <v>150</v>
       </c>
       <c r="E43" s="15">
         <f t="shared" si="11"/>
-        <v>1161.9588279713332</v>
+        <v>1500.9560899703392</v>
       </c>
       <c r="F43" s="13">
         <f t="shared" si="12"/>
-        <v>122.14156233257941</v>
+        <v>150.0874368892344</v>
       </c>
       <c r="G43" s="13">
         <f t="shared" si="13"/>
-        <v>0.7726425933901595</v>
+        <v>1.2218802688768923E-2</v>
       </c>
       <c r="H43" s="3">
         <f t="shared" si="14"/>
-        <v>119.39740635795606</v>
+        <v>150.0874368892344</v>
       </c>
       <c r="I43" s="3">
         <f t="shared" si="15"/>
-        <v>119.39740635795606</v>
+        <v>150.10435268595737</v>
       </c>
       <c r="J43" s="3">
         <f t="shared" si="16"/>
@@ -2839,23 +2835,23 @@
       </c>
       <c r="K43" s="3">
         <f t="shared" si="17"/>
-        <v>4530.1514241437535</v>
+        <v>5049.0439100296608</v>
       </c>
       <c r="L43" s="3">
         <f t="shared" si="18"/>
-        <v>6.2112952029051751</v>
+        <v>22.5</v>
       </c>
       <c r="M43" s="13">
         <f t="shared" si="19"/>
-        <v>0.20610282429276305</v>
+        <v>559.77491747894362</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="20"/>
-        <v>6.4173980271979385</v>
+        <v>582.27491747894362</v>
       </c>
       <c r="O43">
         <f t="shared" si="21"/>
-        <v>751.2840497834402</v>
+        <v>4699.6480853030725</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -2866,27 +2862,27 @@
         <v>120</v>
       </c>
       <c r="D44" s="13">
-        <v>109.18785867497482</v>
+        <v>150</v>
       </c>
       <c r="E44" s="15">
         <f t="shared" si="11"/>
-        <v>1193.4401955553408</v>
+        <v>1500.8630144821973</v>
       </c>
       <c r="F44" s="13">
         <f t="shared" si="12"/>
-        <v>121.22684367437162</v>
+        <v>150.09307548814206</v>
       </c>
       <c r="G44" s="13">
         <f t="shared" si="13"/>
-        <v>-0.91471865820778453</v>
+        <v>5.6385989076564629E-3</v>
       </c>
       <c r="H44" s="3">
         <f t="shared" si="14"/>
-        <v>116.19588279713332</v>
+        <v>150.09307548814206</v>
       </c>
       <c r="I44" s="3">
         <f t="shared" si="15"/>
-        <v>116.19588279713332</v>
+        <v>150.09560899703393</v>
       </c>
       <c r="J44" s="3">
         <f t="shared" si="16"/>
@@ -2894,23 +2890,23 @@
       </c>
       <c r="K44" s="3">
         <f t="shared" si="17"/>
-        <v>4646.3473069408865</v>
+        <v>5199.1369855178027</v>
       </c>
       <c r="L44" s="3">
         <f t="shared" si="18"/>
-        <v>11.921988482026274</v>
+        <v>22.5</v>
       </c>
       <c r="M44" s="13">
         <f t="shared" si="19"/>
-        <v>8.0576610803651444E-2</v>
+        <v>625.26833714787108</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" si="20"/>
-        <v>12.002565092829926</v>
+        <v>647.76833714787108</v>
       </c>
       <c r="O44">
         <f t="shared" si="21"/>
-        <v>763.28661487627016</v>
+        <v>5347.4164224509441</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -2921,27 +2917,27 @@
         <v>120</v>
       </c>
       <c r="D45" s="13">
-        <v>83.608150411270671</v>
+        <v>150</v>
       </c>
       <c r="E45" s="15">
         <f t="shared" si="11"/>
-        <v>1180.6685669833398</v>
+        <v>1500.7767130339776</v>
       </c>
       <c r="F45" s="13">
         <f t="shared" si="12"/>
-        <v>119.54985671529219</v>
+        <v>150.09391999110602</v>
       </c>
       <c r="G45" s="13">
         <f t="shared" si="13"/>
-        <v>-1.6769869590794333</v>
+        <v>8.4450296395743862E-4</v>
       </c>
       <c r="H45" s="3">
         <f t="shared" si="14"/>
-        <v>119.34401955553408</v>
+        <v>150.08630144821973</v>
       </c>
       <c r="I45" s="3">
         <f t="shared" si="15"/>
-        <v>119.34401955553408</v>
+        <v>150.08630144821973</v>
       </c>
       <c r="J45" s="3">
         <f t="shared" si="16"/>
@@ -2949,23 +2945,23 @@
       </c>
       <c r="K45" s="3">
         <f t="shared" si="17"/>
-        <v>4765.6913264964205</v>
+        <v>5349.223286966022</v>
       </c>
       <c r="L45" s="3">
         <f t="shared" si="18"/>
-        <v>6.9903228151936601</v>
+        <v>22.5</v>
       </c>
       <c r="M45" s="13">
         <f t="shared" si="19"/>
-        <v>6.4782394577716451E-2</v>
+        <v>694.36816380608616</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" si="20"/>
-        <v>7.0551052097713765</v>
+        <v>716.86816380608616</v>
       </c>
       <c r="O45">
         <f t="shared" si="21"/>
-        <v>770.34172008604151</v>
+        <v>6064.2845862570302</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -2976,27 +2972,27 @@
         <v>120</v>
       </c>
       <c r="D46" s="13">
-        <v>41.529190862049553</v>
+        <v>150</v>
       </c>
       <c r="E46" s="15">
         <f t="shared" si="11"/>
-        <v>1141.4134809979214</v>
+        <v>1500.6990417305799</v>
       </c>
       <c r="F46" s="13">
         <f t="shared" si="12"/>
-        <v>119.48124432870615</v>
+        <v>150.0913804768106</v>
       </c>
       <c r="G46" s="13">
         <f t="shared" si="13"/>
-        <v>-6.861238658603952E-2</v>
+        <v>-2.5395142954304597E-3</v>
       </c>
       <c r="H46" s="3">
         <f t="shared" si="14"/>
-        <v>118.06685669833398</v>
+        <v>150.07767130339775</v>
       </c>
       <c r="I46" s="3">
         <f t="shared" si="15"/>
-        <v>118.06685669833398</v>
+        <v>150.07767130339775</v>
       </c>
       <c r="J46" s="3">
         <f t="shared" si="16"/>
@@ -3004,23 +3000,23 @@
       </c>
       <c r="K46" s="3">
         <f t="shared" si="17"/>
-        <v>4883.7581831947546</v>
+        <v>5499.3009582694194</v>
       </c>
       <c r="L46" s="3">
         <f t="shared" si="18"/>
-        <v>1.7246736936565401</v>
+        <v>22.5</v>
       </c>
       <c r="M46" s="13">
         <f t="shared" si="19"/>
-        <v>2.8247881850671258E-2</v>
+        <v>767.06735382684235</v>
       </c>
       <c r="N46" s="3">
         <f t="shared" si="20"/>
-        <v>1.7529215755072114</v>
+        <v>789.56735382684235</v>
       </c>
       <c r="O46">
         <f t="shared" si="21"/>
-        <v>772.09464166154874</v>
+        <v>6853.8519400838723</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -3031,27 +3027,27 @@
         <v>120</v>
       </c>
       <c r="D47" s="13">
-        <v>72.14511155586888</v>
+        <v>150</v>
       </c>
       <c r="E47" s="15">
         <f t="shared" si="11"/>
-        <v>1136.4599915731042</v>
+        <v>1500.629137557522</v>
       </c>
       <c r="F47" s="13">
         <f t="shared" si="12"/>
-        <v>119.00978178524876</v>
+        <v>150.08681075233966</v>
       </c>
       <c r="G47" s="13">
         <f t="shared" si="13"/>
-        <v>-0.4714625434573918</v>
+        <v>-4.5697244709496472E-3</v>
       </c>
       <c r="H47" s="3">
         <f t="shared" si="14"/>
-        <v>114.14134809979214</v>
+        <v>150.06990417305798</v>
       </c>
       <c r="I47" s="3">
         <f t="shared" si="15"/>
-        <v>114.14134809979214</v>
+        <v>150.06990417305798</v>
       </c>
       <c r="J47" s="3">
         <f t="shared" si="16"/>
@@ -3059,23 +3055,23 @@
       </c>
       <c r="K47" s="3">
         <f t="shared" si="17"/>
-        <v>4997.8995312945463</v>
+        <v>5649.3708624424771</v>
       </c>
       <c r="L47" s="3">
         <f t="shared" si="18"/>
-        <v>5.2049171214087657</v>
+        <v>22.5</v>
       </c>
       <c r="M47" s="13">
         <f t="shared" si="19"/>
-        <v>8.8239375651811038E-3</v>
+        <v>843.36503397857302</v>
       </c>
       <c r="N47" s="3">
         <f t="shared" si="20"/>
-        <v>5.2137410589739472</v>
+        <v>865.86503397857302</v>
       </c>
       <c r="O47">
         <f t="shared" si="21"/>
-        <v>777.30838272052267</v>
+        <v>7719.7169740624449</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -3086,27 +3082,27 @@
         <v>120</v>
       </c>
       <c r="D48" s="13">
-        <v>12.859146510289635</v>
+        <v>150</v>
       </c>
       <c r="E48" s="15">
         <f t="shared" si="11"/>
-        <v>1106.4221428270644</v>
+        <v>1500.5662238017699</v>
       </c>
       <c r="F48" s="13">
         <f t="shared" si="12"/>
-        <v>117.38697055676322</v>
+        <v>150.08117522591243</v>
       </c>
       <c r="G48" s="13">
         <f t="shared" si="13"/>
-        <v>-1.6228112284855409</v>
+        <v>-5.6355264272269778E-3</v>
       </c>
       <c r="H48" s="3">
         <f t="shared" si="14"/>
-        <v>113.64599915731041</v>
+        <v>150.06291375575219</v>
       </c>
       <c r="I48" s="3">
         <f t="shared" si="15"/>
-        <v>113.64599915731041</v>
+        <v>150.06291375575219</v>
       </c>
       <c r="J48" s="3">
         <f t="shared" si="16"/>
@@ -3114,23 +3110,23 @@
       </c>
       <c r="K48" s="3">
         <f t="shared" si="17"/>
-        <v>5111.5455304518564</v>
+        <v>5799.4337761982297</v>
       </c>
       <c r="L48" s="3">
         <f t="shared" si="18"/>
-        <v>0.16535764897309413</v>
+        <v>22.5</v>
       </c>
       <c r="M48" s="13">
         <f t="shared" si="19"/>
-        <v>0.14295611068097511</v>
+        <v>923.26051247797204</v>
       </c>
       <c r="N48" s="3">
         <f t="shared" si="20"/>
-        <v>0.30831375965406926</v>
+        <v>945.76051247797204</v>
       </c>
       <c r="O48">
         <f t="shared" si="21"/>
-        <v>777.61669648017676</v>
+        <v>8665.4774865404179</v>
       </c>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
@@ -3141,27 +3137,27 @@
         <v>120</v>
       </c>
       <c r="D49" s="13">
-        <v>33.314688251529589</v>
+        <v>150</v>
       </c>
       <c r="E49" s="15">
         <f t="shared" si="11"/>
-        <v>1037.3091194064075</v>
+        <v>1500.5096014215928</v>
       </c>
       <c r="F49" s="13">
         <f t="shared" si="12"/>
-        <v>116.13998009027895</v>
+        <v>150.07508806919236</v>
       </c>
       <c r="G49" s="13">
         <f t="shared" si="13"/>
-        <v>-1.2469904664842677</v>
+        <v>-6.0871567200801264E-3</v>
       </c>
       <c r="H49" s="3">
         <f t="shared" si="14"/>
-        <v>110.64221428270643</v>
+        <v>150.05662238017698</v>
       </c>
       <c r="I49" s="3">
         <f t="shared" si="15"/>
-        <v>110.64221428270643</v>
+        <v>150.05662238017698</v>
       </c>
       <c r="J49" s="3">
         <f t="shared" si="16"/>
@@ -3169,23 +3165,23 @@
       </c>
       <c r="K49" s="3">
         <f t="shared" si="17"/>
-        <v>5222.1877447345632</v>
+        <v>5949.4903985784067</v>
       </c>
       <c r="L49" s="3">
         <f t="shared" si="18"/>
-        <v>1.1098684532966037</v>
+        <v>22.5</v>
       </c>
       <c r="M49" s="13">
         <f t="shared" si="19"/>
-        <v>0.6345528752821592</v>
+        <v>1006.7532513498928</v>
       </c>
       <c r="N49" s="3">
         <f t="shared" si="20"/>
-        <v>1.7444213285787629</v>
+        <v>1029.2532513498927</v>
       </c>
       <c r="O49">
         <f t="shared" si="21"/>
-        <v>779.36111780875547</v>
+        <v>9694.7307378903097</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
@@ -3196,27 +3192,27 @@
         <v>120</v>
       </c>
       <c r="D50" s="13">
-        <v>48.500003909654218</v>
+        <v>150</v>
       </c>
       <c r="E50" s="15">
         <f t="shared" si="11"/>
-        <v>1005.7233190216356</v>
+        <v>1500.4586412794336</v>
       </c>
       <c r="F50" s="13">
         <f t="shared" si="12"/>
-        <v>114.30739148775478</v>
+        <v>150.06893283952056</v>
       </c>
       <c r="G50" s="13">
         <f t="shared" si="13"/>
-        <v>-1.8325886025241733</v>
+        <v>-6.1552296717953441E-3</v>
       </c>
       <c r="H50" s="3">
         <f t="shared" si="14"/>
-        <v>103.73091194064075</v>
+        <v>150.05096014215928</v>
       </c>
       <c r="I50" s="3">
         <f t="shared" si="15"/>
-        <v>103.73091194064075</v>
+        <v>150.05096014215928</v>
       </c>
       <c r="J50" s="3">
         <f t="shared" si="16"/>
@@ -3224,23 +3220,23 @@
       </c>
       <c r="K50" s="3">
         <f t="shared" si="17"/>
-        <v>5325.9186566752041</v>
+        <v>6099.5413587205658</v>
       </c>
       <c r="L50" s="3">
         <f t="shared" si="18"/>
-        <v>2.3522503792364748</v>
+        <v>22.5</v>
       </c>
       <c r="M50" s="13">
         <f t="shared" si="19"/>
-        <v>2.323075925645214</v>
+        <v>1093.8428425165209</v>
       </c>
       <c r="N50" s="3">
         <f t="shared" si="20"/>
-        <v>4.6753263048816889</v>
+        <v>1116.3428425165209</v>
       </c>
       <c r="O50">
         <f t="shared" si="21"/>
-        <v>784.03644411363712</v>
+        <v>10811.07358040683</v>
       </c>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
@@ -3251,27 +3247,27 @@
         <v>120</v>
       </c>
       <c r="D51" s="13">
-        <v>59.728409837875773</v>
+        <v>150</v>
       </c>
       <c r="E51" s="15">
         <f t="shared" si="11"/>
-        <v>918.01013362976164</v>
+        <v>1500.4127771514902</v>
       </c>
       <c r="F51" s="13">
         <f t="shared" si="12"/>
-        <v>110.78189830538344</v>
+        <v>150.06294194040012</v>
       </c>
       <c r="G51" s="13">
         <f t="shared" si="13"/>
-        <v>-3.5254931823713442</v>
+        <v>-5.9908991204243494E-3</v>
       </c>
       <c r="H51" s="3">
         <f t="shared" si="14"/>
-        <v>100.57233190216355</v>
+        <v>150.04586412794336</v>
       </c>
       <c r="I51" s="3">
         <f t="shared" si="15"/>
-        <v>100.57233190216355</v>
+        <v>150.04586412794336</v>
       </c>
       <c r="J51" s="3">
         <f t="shared" si="16"/>
@@ -3279,29 +3275,29 @@
       </c>
       <c r="K51" s="3">
         <f t="shared" si="17"/>
-        <v>5426.4909885773677</v>
+        <v>6249.5872228485096</v>
       </c>
       <c r="L51" s="3">
         <f t="shared" si="18"/>
-        <v>3.5674829417612557</v>
+        <v>22.5</v>
       </c>
       <c r="M51" s="13">
         <f t="shared" si="19"/>
-        <v>5.7264286068547845</v>
+        <v>1184.5289871433631</v>
       </c>
       <c r="N51" s="3">
         <f t="shared" si="20"/>
-        <v>9.2939115486160411</v>
+        <v>1207.0289871433631</v>
       </c>
       <c r="O51">
         <f t="shared" si="21"/>
-        <v>793.33035566225317</v>
+        <v>12018.102567550193</v>
       </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="N53" s="3">
         <f>SUM(N6:N51)</f>
-        <v>793.33035566225317</v>
+        <v>12018.102567550193</v>
       </c>
     </row>
   </sheetData>

--- a/modelo_excel.xlsx
+++ b/modelo_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GDRIVE_JCE\Mi unidad\cod\RL_DS_dynamic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BC627E-2B33-4CDF-B1E7-8785713E8DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFEE4232-D047-455A-910E-F34621088A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9190A782-109A-4E43-A899-3A4B83188105}"/>
   </bookViews>
@@ -183,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -240,6 +240,8 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8B34C3-B0EF-452A-B745-B234E9E67503}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D33" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +669,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
@@ -700,7 +702,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2">
         <v>-1</v>
       </c>
@@ -722,7 +724,7 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="2">
         <v>0</v>
       </c>
@@ -814,7 +816,7 @@
         <f>L6+M6</f>
         <v>22.5</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="20">
         <f>N6</f>
         <v>22.5</v>
       </c>
@@ -834,7 +836,7 @@
         <v>1000</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" ref="F7:F40" si="1">F6+G7</f>
+        <f t="shared" ref="F7:F51" si="1">F6+G7</f>
         <v>100</v>
       </c>
       <c r="G7" s="13">
@@ -869,7 +871,7 @@
         <f t="shared" ref="N7:N40" si="8">L7+M7</f>
         <v>22.5</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="20">
         <f>N7+O6</f>
         <v>45</v>
       </c>
@@ -924,7 +926,7 @@
         <f t="shared" si="8"/>
         <v>23.3</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="20">
         <f t="shared" ref="O8:O40" si="9">N8+O7</f>
         <v>68.3</v>
       </c>
@@ -944,7 +946,7 @@
         <v>1050</v>
       </c>
       <c r="F9" s="13">
-        <f>F8+G9</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G9" s="13">
@@ -979,7 +981,7 @@
         <f t="shared" si="8"/>
         <v>25.7</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="20">
         <f t="shared" si="9"/>
         <v>94</v>
       </c>
@@ -999,7 +1001,7 @@
         <v>1100</v>
       </c>
       <c r="F10" s="13">
-        <f>F9+G10</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G10" s="13">
@@ -1034,7 +1036,7 @@
         <f t="shared" si="8"/>
         <v>29.7</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="20">
         <f t="shared" si="9"/>
         <v>123.7</v>
       </c>
@@ -1053,7 +1055,7 @@
         <f>E10+D8-H11</f>
         <v>1148.3333333333333</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="13">
         <f t="shared" si="1"/>
         <v>101.66666666666667</v>
       </c>
@@ -1089,7 +1091,7 @@
         <f t="shared" si="8"/>
         <v>34.772222222222233</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="20">
         <f t="shared" si="9"/>
         <v>158.47222222222223</v>
       </c>
@@ -1108,8 +1110,8 @@
         <f>E11+D9-H12</f>
         <v>1193.8888888888889</v>
       </c>
-      <c r="F12" s="10">
-        <f>F11+G12</f>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
         <v>104.44444444444444</v>
       </c>
       <c r="G12" s="11">
@@ -1144,7 +1146,7 @@
         <f t="shared" si="8"/>
         <v>40.130246913580258</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="20">
         <f t="shared" si="9"/>
         <v>198.60246913580249</v>
       </c>
@@ -1199,7 +1201,7 @@
         <f t="shared" si="8"/>
         <v>44.964148834019227</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="20">
         <f t="shared" si="9"/>
         <v>243.56661796982172</v>
       </c>
@@ -1254,7 +1256,7 @@
         <f t="shared" si="8"/>
         <v>48.60471452522485</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="21">
         <f t="shared" si="9"/>
         <v>292.17133249504656</v>
       </c>
@@ -1309,7 +1311,7 @@
         <f t="shared" si="8"/>
         <v>50.611912858896929</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="20">
         <f t="shared" si="9"/>
         <v>342.78324535394347</v>
       </c>
@@ -1364,7 +1366,7 @@
         <f t="shared" si="8"/>
         <v>50.801468468569475</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="20">
         <f t="shared" si="9"/>
         <v>393.58471382251292</v>
       </c>
@@ -1419,7 +1421,7 @@
         <f t="shared" si="8"/>
         <v>49.228704318494344</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="20">
         <f t="shared" si="9"/>
         <v>442.81341814100728</v>
       </c>
@@ -1474,7 +1476,7 @@
         <f t="shared" si="8"/>
         <v>46.147623010894534</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="20">
         <f t="shared" si="9"/>
         <v>488.96104115190178</v>
       </c>
@@ -1529,7 +1531,7 @@
         <f t="shared" si="8"/>
         <v>41.959402414153999</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="20">
         <f t="shared" si="9"/>
         <v>530.92044356605584</v>
       </c>
@@ -1584,7 +1586,7 @@
         <f t="shared" si="8"/>
         <v>37.160176296242724</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="20">
         <f t="shared" si="9"/>
         <v>568.08061986229859</v>
       </c>
@@ -1639,7 +1641,7 @@
         <f t="shared" si="8"/>
         <v>32.294144154464618</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="20">
         <f t="shared" si="9"/>
         <v>600.37476401676327</v>
       </c>
@@ -2704,43 +2706,43 @@
         <v>1501.1187449461193</v>
       </c>
       <c r="F41" s="13">
-        <f t="shared" ref="F41:F51" si="12">F40+G41</f>
+        <f t="shared" si="1"/>
         <v>150.05418084048804</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" ref="G41:G51" si="13">(I40-F40)/$G$1</f>
+        <f t="shared" ref="G41:G51" si="12">(I40-F40)/$G$1</f>
         <v>3.2633248676897132E-2</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" ref="H41:H51" si="14">MIN(I41,F41)</f>
+        <f t="shared" ref="H41:H51" si="13">MIN(I41,F41)</f>
         <v>150.05418084048804</v>
       </c>
       <c r="I41" s="3">
-        <f t="shared" ref="I41:I51" si="15">E40/$I$1</f>
+        <f t="shared" ref="I41:I51" si="14">E40/$I$1</f>
         <v>150.11729257866074</v>
       </c>
       <c r="J41" s="3">
-        <f t="shared" ref="J41:J51" si="16">J40+C41</f>
+        <f t="shared" ref="J41:J51" si="15">J40+C41</f>
         <v>4280</v>
       </c>
       <c r="K41" s="3">
-        <f t="shared" ref="K41:K51" si="17">K40+H41</f>
+        <f t="shared" ref="K41:K51" si="16">K40+H41</f>
         <v>4748.8812550538805</v>
       </c>
       <c r="L41" s="3">
-        <f t="shared" ref="L41:L51" si="18">(D41^2)*$M$1</f>
+        <f t="shared" ref="L41:L51" si="17">(D41^2)*$M$1</f>
         <v>22.5</v>
       </c>
       <c r="M41" s="13">
-        <f t="shared" ref="M41:M51" si="19">$K$1*(J41-K41)^2</f>
+        <f t="shared" ref="M41:M51" si="18">$K$1*(J41-K41)^2</f>
         <v>439.69926268180433</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" ref="N41:N51" si="20">L41+M41</f>
+        <f t="shared" ref="N41:N51" si="19">L41+M41</f>
         <v>462.19926268180433</v>
       </c>
       <c r="O41">
-        <f t="shared" ref="O41:O51" si="21">N41+O40</f>
+        <f t="shared" ref="O41:O51" si="20">N41+O40</f>
         <v>3596.9580436466636</v>
       </c>
     </row>
@@ -2759,43 +2761,43 @@
         <v>1501.0435268595736</v>
       </c>
       <c r="F42" s="13">
+        <f t="shared" si="1"/>
+        <v>150.07521808654562</v>
+      </c>
+      <c r="G42" s="13">
         <f t="shared" si="12"/>
+        <v>2.1037246057564591E-2</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="13"/>
         <v>150.07521808654562</v>
       </c>
-      <c r="G42" s="13">
-        <f t="shared" si="13"/>
-        <v>2.1037246057564591E-2</v>
-      </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <f t="shared" si="14"/>
-        <v>150.07521808654562</v>
-      </c>
-      <c r="I42" s="3">
+        <v>150.11187449461193</v>
+      </c>
+      <c r="J42" s="3">
         <f t="shared" si="15"/>
-        <v>150.11187449461193</v>
-      </c>
-      <c r="J42" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K42" s="3">
         <f t="shared" si="16"/>
-        <v>4400</v>
-      </c>
-      <c r="K42" s="3">
+        <v>4898.9564731404262</v>
+      </c>
+      <c r="L42" s="3">
         <f t="shared" si="17"/>
-        <v>4898.9564731404262</v>
-      </c>
-      <c r="L42" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M42" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M42" s="13">
+        <v>497.91512417746566</v>
+      </c>
+      <c r="N42" s="3">
         <f t="shared" si="19"/>
-        <v>497.91512417746566</v>
-      </c>
-      <c r="N42" s="3">
+        <v>520.41512417746571</v>
+      </c>
+      <c r="O42">
         <f t="shared" si="20"/>
-        <v>520.41512417746571</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="21"/>
         <v>4117.3731678241293</v>
       </c>
     </row>
@@ -2814,43 +2816,43 @@
         <v>1500.9560899703392</v>
       </c>
       <c r="F43" s="13">
+        <f t="shared" si="1"/>
+        <v>150.0874368892344</v>
+      </c>
+      <c r="G43" s="13">
         <f t="shared" si="12"/>
+        <v>1.2218802688768923E-2</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="13"/>
         <v>150.0874368892344</v>
       </c>
-      <c r="G43" s="13">
-        <f t="shared" si="13"/>
-        <v>1.2218802688768923E-2</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <f t="shared" si="14"/>
-        <v>150.0874368892344</v>
-      </c>
-      <c r="I43" s="3">
+        <v>150.10435268595737</v>
+      </c>
+      <c r="J43" s="3">
         <f t="shared" si="15"/>
-        <v>150.10435268595737</v>
-      </c>
-      <c r="J43" s="3">
+        <v>4520</v>
+      </c>
+      <c r="K43" s="3">
         <f t="shared" si="16"/>
-        <v>4520</v>
-      </c>
-      <c r="K43" s="3">
+        <v>5049.0439100296608</v>
+      </c>
+      <c r="L43" s="3">
         <f t="shared" si="17"/>
-        <v>5049.0439100296608</v>
-      </c>
-      <c r="L43" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M43" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M43" s="13">
+        <v>559.77491747894362</v>
+      </c>
+      <c r="N43" s="3">
         <f t="shared" si="19"/>
-        <v>559.77491747894362</v>
-      </c>
-      <c r="N43" s="3">
+        <v>582.27491747894362</v>
+      </c>
+      <c r="O43">
         <f t="shared" si="20"/>
-        <v>582.27491747894362</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="21"/>
         <v>4699.6480853030725</v>
       </c>
     </row>
@@ -2869,43 +2871,43 @@
         <v>1500.8630144821973</v>
       </c>
       <c r="F44" s="13">
+        <f t="shared" si="1"/>
+        <v>150.09307548814206</v>
+      </c>
+      <c r="G44" s="13">
         <f t="shared" si="12"/>
+        <v>5.6385989076564629E-3</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="13"/>
         <v>150.09307548814206</v>
       </c>
-      <c r="G44" s="13">
-        <f t="shared" si="13"/>
-        <v>5.6385989076564629E-3</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <f t="shared" si="14"/>
-        <v>150.09307548814206</v>
-      </c>
-      <c r="I44" s="3">
+        <v>150.09560899703393</v>
+      </c>
+      <c r="J44" s="3">
         <f t="shared" si="15"/>
-        <v>150.09560899703393</v>
-      </c>
-      <c r="J44" s="3">
+        <v>4640</v>
+      </c>
+      <c r="K44" s="3">
         <f t="shared" si="16"/>
-        <v>4640</v>
-      </c>
-      <c r="K44" s="3">
+        <v>5199.1369855178027</v>
+      </c>
+      <c r="L44" s="3">
         <f t="shared" si="17"/>
-        <v>5199.1369855178027</v>
-      </c>
-      <c r="L44" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M44" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M44" s="13">
+        <v>625.26833714787108</v>
+      </c>
+      <c r="N44" s="3">
         <f t="shared" si="19"/>
-        <v>625.26833714787108</v>
-      </c>
-      <c r="N44" s="3">
+        <v>647.76833714787108</v>
+      </c>
+      <c r="O44">
         <f t="shared" si="20"/>
-        <v>647.76833714787108</v>
-      </c>
-      <c r="O44">
-        <f t="shared" si="21"/>
         <v>5347.4164224509441</v>
       </c>
     </row>
@@ -2924,43 +2926,43 @@
         <v>1500.7767130339776</v>
       </c>
       <c r="F45" s="13">
+        <f t="shared" si="1"/>
+        <v>150.09391999110602</v>
+      </c>
+      <c r="G45" s="13">
         <f t="shared" si="12"/>
-        <v>150.09391999110602</v>
-      </c>
-      <c r="G45" s="13">
+        <v>8.4450296395743862E-4</v>
+      </c>
+      <c r="H45" s="3">
         <f t="shared" si="13"/>
-        <v>8.4450296395743862E-4</v>
-      </c>
-      <c r="H45" s="3">
+        <v>150.08630144821973</v>
+      </c>
+      <c r="I45" s="3">
         <f t="shared" si="14"/>
         <v>150.08630144821973</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <f t="shared" si="15"/>
-        <v>150.08630144821973</v>
-      </c>
-      <c r="J45" s="3">
+        <v>4760</v>
+      </c>
+      <c r="K45" s="3">
         <f t="shared" si="16"/>
-        <v>4760</v>
-      </c>
-      <c r="K45" s="3">
+        <v>5349.223286966022</v>
+      </c>
+      <c r="L45" s="3">
         <f t="shared" si="17"/>
-        <v>5349.223286966022</v>
-      </c>
-      <c r="L45" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M45" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M45" s="13">
+        <v>694.36816380608616</v>
+      </c>
+      <c r="N45" s="3">
         <f t="shared" si="19"/>
-        <v>694.36816380608616</v>
-      </c>
-      <c r="N45" s="3">
+        <v>716.86816380608616</v>
+      </c>
+      <c r="O45">
         <f t="shared" si="20"/>
-        <v>716.86816380608616</v>
-      </c>
-      <c r="O45">
-        <f t="shared" si="21"/>
         <v>6064.2845862570302</v>
       </c>
     </row>
@@ -2979,43 +2981,43 @@
         <v>1500.6990417305799</v>
       </c>
       <c r="F46" s="13">
+        <f t="shared" si="1"/>
+        <v>150.0913804768106</v>
+      </c>
+      <c r="G46" s="13">
         <f t="shared" si="12"/>
-        <v>150.0913804768106</v>
-      </c>
-      <c r="G46" s="13">
+        <v>-2.5395142954304597E-3</v>
+      </c>
+      <c r="H46" s="3">
         <f t="shared" si="13"/>
-        <v>-2.5395142954304597E-3</v>
-      </c>
-      <c r="H46" s="3">
+        <v>150.07767130339775</v>
+      </c>
+      <c r="I46" s="3">
         <f t="shared" si="14"/>
         <v>150.07767130339775</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <f t="shared" si="15"/>
-        <v>150.07767130339775</v>
-      </c>
-      <c r="J46" s="3">
+        <v>4880</v>
+      </c>
+      <c r="K46" s="3">
         <f t="shared" si="16"/>
-        <v>4880</v>
-      </c>
-      <c r="K46" s="3">
+        <v>5499.3009582694194</v>
+      </c>
+      <c r="L46" s="3">
         <f t="shared" si="17"/>
-        <v>5499.3009582694194</v>
-      </c>
-      <c r="L46" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M46" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M46" s="13">
+        <v>767.06735382684235</v>
+      </c>
+      <c r="N46" s="3">
         <f t="shared" si="19"/>
-        <v>767.06735382684235</v>
-      </c>
-      <c r="N46" s="3">
+        <v>789.56735382684235</v>
+      </c>
+      <c r="O46">
         <f t="shared" si="20"/>
-        <v>789.56735382684235</v>
-      </c>
-      <c r="O46">
-        <f t="shared" si="21"/>
         <v>6853.8519400838723</v>
       </c>
     </row>
@@ -3034,43 +3036,43 @@
         <v>1500.629137557522</v>
       </c>
       <c r="F47" s="13">
+        <f t="shared" si="1"/>
+        <v>150.08681075233966</v>
+      </c>
+      <c r="G47" s="13">
         <f t="shared" si="12"/>
-        <v>150.08681075233966</v>
-      </c>
-      <c r="G47" s="13">
+        <v>-4.5697244709496472E-3</v>
+      </c>
+      <c r="H47" s="3">
         <f t="shared" si="13"/>
-        <v>-4.5697244709496472E-3</v>
-      </c>
-      <c r="H47" s="3">
+        <v>150.06990417305798</v>
+      </c>
+      <c r="I47" s="3">
         <f t="shared" si="14"/>
         <v>150.06990417305798</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <f t="shared" si="15"/>
-        <v>150.06990417305798</v>
-      </c>
-      <c r="J47" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K47" s="3">
         <f t="shared" si="16"/>
-        <v>5000</v>
-      </c>
-      <c r="K47" s="3">
+        <v>5649.3708624424771</v>
+      </c>
+      <c r="L47" s="3">
         <f t="shared" si="17"/>
-        <v>5649.3708624424771</v>
-      </c>
-      <c r="L47" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M47" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M47" s="13">
+        <v>843.36503397857302</v>
+      </c>
+      <c r="N47" s="3">
         <f t="shared" si="19"/>
-        <v>843.36503397857302</v>
-      </c>
-      <c r="N47" s="3">
+        <v>865.86503397857302</v>
+      </c>
+      <c r="O47">
         <f t="shared" si="20"/>
-        <v>865.86503397857302</v>
-      </c>
-      <c r="O47">
-        <f t="shared" si="21"/>
         <v>7719.7169740624449</v>
       </c>
     </row>
@@ -3089,43 +3091,43 @@
         <v>1500.5662238017699</v>
       </c>
       <c r="F48" s="13">
+        <f t="shared" si="1"/>
+        <v>150.08117522591243</v>
+      </c>
+      <c r="G48" s="13">
         <f t="shared" si="12"/>
-        <v>150.08117522591243</v>
-      </c>
-      <c r="G48" s="13">
+        <v>-5.6355264272269778E-3</v>
+      </c>
+      <c r="H48" s="3">
         <f t="shared" si="13"/>
-        <v>-5.6355264272269778E-3</v>
-      </c>
-      <c r="H48" s="3">
+        <v>150.06291375575219</v>
+      </c>
+      <c r="I48" s="3">
         <f t="shared" si="14"/>
         <v>150.06291375575219</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <f t="shared" si="15"/>
-        <v>150.06291375575219</v>
-      </c>
-      <c r="J48" s="3">
+        <v>5120</v>
+      </c>
+      <c r="K48" s="3">
         <f t="shared" si="16"/>
-        <v>5120</v>
-      </c>
-      <c r="K48" s="3">
+        <v>5799.4337761982297</v>
+      </c>
+      <c r="L48" s="3">
         <f t="shared" si="17"/>
-        <v>5799.4337761982297</v>
-      </c>
-      <c r="L48" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M48" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M48" s="13">
+        <v>923.26051247797204</v>
+      </c>
+      <c r="N48" s="3">
         <f t="shared" si="19"/>
-        <v>923.26051247797204</v>
-      </c>
-      <c r="N48" s="3">
+        <v>945.76051247797204</v>
+      </c>
+      <c r="O48">
         <f t="shared" si="20"/>
-        <v>945.76051247797204</v>
-      </c>
-      <c r="O48">
-        <f t="shared" si="21"/>
         <v>8665.4774865404179</v>
       </c>
     </row>
@@ -3144,43 +3146,43 @@
         <v>1500.5096014215928</v>
       </c>
       <c r="F49" s="13">
+        <f t="shared" si="1"/>
+        <v>150.07508806919236</v>
+      </c>
+      <c r="G49" s="13">
         <f t="shared" si="12"/>
-        <v>150.07508806919236</v>
-      </c>
-      <c r="G49" s="13">
+        <v>-6.0871567200801264E-3</v>
+      </c>
+      <c r="H49" s="3">
         <f t="shared" si="13"/>
-        <v>-6.0871567200801264E-3</v>
-      </c>
-      <c r="H49" s="3">
+        <v>150.05662238017698</v>
+      </c>
+      <c r="I49" s="3">
         <f t="shared" si="14"/>
         <v>150.05662238017698</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <f t="shared" si="15"/>
-        <v>150.05662238017698</v>
-      </c>
-      <c r="J49" s="3">
+        <v>5240</v>
+      </c>
+      <c r="K49" s="3">
         <f t="shared" si="16"/>
-        <v>5240</v>
-      </c>
-      <c r="K49" s="3">
+        <v>5949.4903985784067</v>
+      </c>
+      <c r="L49" s="3">
         <f t="shared" si="17"/>
-        <v>5949.4903985784067</v>
-      </c>
-      <c r="L49" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M49" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M49" s="13">
+        <v>1006.7532513498928</v>
+      </c>
+      <c r="N49" s="3">
         <f t="shared" si="19"/>
-        <v>1006.7532513498928</v>
-      </c>
-      <c r="N49" s="3">
+        <v>1029.2532513498927</v>
+      </c>
+      <c r="O49">
         <f t="shared" si="20"/>
-        <v>1029.2532513498927</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="21"/>
         <v>9694.7307378903097</v>
       </c>
     </row>
@@ -3199,43 +3201,43 @@
         <v>1500.4586412794336</v>
       </c>
       <c r="F50" s="13">
+        <f t="shared" si="1"/>
+        <v>150.06893283952056</v>
+      </c>
+      <c r="G50" s="13">
         <f t="shared" si="12"/>
-        <v>150.06893283952056</v>
-      </c>
-      <c r="G50" s="13">
+        <v>-6.1552296717953441E-3</v>
+      </c>
+      <c r="H50" s="3">
         <f t="shared" si="13"/>
-        <v>-6.1552296717953441E-3</v>
-      </c>
-      <c r="H50" s="3">
+        <v>150.05096014215928</v>
+      </c>
+      <c r="I50" s="3">
         <f t="shared" si="14"/>
         <v>150.05096014215928</v>
       </c>
-      <c r="I50" s="3">
+      <c r="J50" s="3">
         <f t="shared" si="15"/>
-        <v>150.05096014215928</v>
-      </c>
-      <c r="J50" s="3">
+        <v>5360</v>
+      </c>
+      <c r="K50" s="3">
         <f t="shared" si="16"/>
-        <v>5360</v>
-      </c>
-      <c r="K50" s="3">
+        <v>6099.5413587205658</v>
+      </c>
+      <c r="L50" s="3">
         <f t="shared" si="17"/>
-        <v>6099.5413587205658</v>
-      </c>
-      <c r="L50" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M50" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M50" s="13">
+        <v>1093.8428425165209</v>
+      </c>
+      <c r="N50" s="3">
         <f t="shared" si="19"/>
-        <v>1093.8428425165209</v>
-      </c>
-      <c r="N50" s="3">
+        <v>1116.3428425165209</v>
+      </c>
+      <c r="O50">
         <f t="shared" si="20"/>
-        <v>1116.3428425165209</v>
-      </c>
-      <c r="O50">
-        <f t="shared" si="21"/>
         <v>10811.07358040683</v>
       </c>
     </row>
@@ -3254,43 +3256,43 @@
         <v>1500.4127771514902</v>
       </c>
       <c r="F51" s="13">
+        <f t="shared" si="1"/>
+        <v>150.06294194040012</v>
+      </c>
+      <c r="G51" s="13">
         <f t="shared" si="12"/>
-        <v>150.06294194040012</v>
-      </c>
-      <c r="G51" s="13">
+        <v>-5.9908991204243494E-3</v>
+      </c>
+      <c r="H51" s="3">
         <f t="shared" si="13"/>
-        <v>-5.9908991204243494E-3</v>
-      </c>
-      <c r="H51" s="3">
+        <v>150.04586412794336</v>
+      </c>
+      <c r="I51" s="3">
         <f t="shared" si="14"/>
         <v>150.04586412794336</v>
       </c>
-      <c r="I51" s="3">
+      <c r="J51" s="3">
         <f t="shared" si="15"/>
-        <v>150.04586412794336</v>
-      </c>
-      <c r="J51" s="3">
+        <v>5480</v>
+      </c>
+      <c r="K51" s="3">
         <f t="shared" si="16"/>
-        <v>5480</v>
-      </c>
-      <c r="K51" s="3">
+        <v>6249.5872228485096</v>
+      </c>
+      <c r="L51" s="3">
         <f t="shared" si="17"/>
-        <v>6249.5872228485096</v>
-      </c>
-      <c r="L51" s="3">
+        <v>22.5</v>
+      </c>
+      <c r="M51" s="13">
         <f t="shared" si="18"/>
-        <v>22.5</v>
-      </c>
-      <c r="M51" s="13">
+        <v>1184.5289871433631</v>
+      </c>
+      <c r="N51" s="3">
         <f t="shared" si="19"/>
-        <v>1184.5289871433631</v>
-      </c>
-      <c r="N51" s="3">
+        <v>1207.0289871433631</v>
+      </c>
+      <c r="O51">
         <f t="shared" si="20"/>
-        <v>1207.0289871433631</v>
-      </c>
-      <c r="O51">
-        <f t="shared" si="21"/>
         <v>12018.102567550193</v>
       </c>
     </row>
